--- a/testcases.xlsx
+++ b/testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adave/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adave/Documents/github/testDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DB940-7BB2-FD47-B9C9-6E9ADA91190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA6D3D-7399-B04C-A6DF-FED199A89D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30820" windowHeight="18440" xr2:uid="{C2C7400A-D8DF-9343-A0E2-93798C85704E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Test Name</t>
   </si>
@@ -352,12 +352,15 @@
   <si>
     <t>should not update fields and computer name should be present when searched</t>
   </si>
+  <si>
+    <t>Please find TABS in this file</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +381,15 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,13 +415,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035228DC-8669-B04D-8187-5FC43B41E342}">
-  <dimension ref="A3:F27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,6 +753,11 @@
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
